--- a/results_gpt_approach/Redundancy_Analyse.xlsx
+++ b/results_gpt_approach/Redundancy_Analyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\InternalGraphAndLLMbasedRedundancyAnalysis\results_gpt_approach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\GraphAndLLMbasedRedundancyAnalysis\results_gpt_approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D523ADA-1E7C-46D1-8ADB-2618B85AF418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0E3B77-205C-4F3D-9772-64A342230875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-80" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{79D69BF5-E829-4324-9BC3-87AC4BA8D8FB}"/>
+    <workbookView xWindow="38290" yWindow="-80" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{79D69BF5-E829-4324-9BC3-87AC4BA8D8FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -2641,7 +2641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D32CB7-AB28-4E7E-801B-7875D2D0C9A5}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -9038,11 +9038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745CDF1-6190-4F49-89E6-75C68145E45A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D445" sqref="D445:D469"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9077,7 +9076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1">
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>1021</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1021</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>1021</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>1021</v>
       </c>
@@ -9166,7 +9165,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:14" hidden="1">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>1021</v>
       </c>
@@ -9184,7 +9183,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:14" hidden="1">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>1021</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>1021</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>1021</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>1021</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1">
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>1021</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>1021</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1">
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>1021</v>
       </c>
@@ -9282,7 +9281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>1021</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1">
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>1021</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1">
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>1021</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>1021</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>1021</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>1021</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>1021</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>1021</v>
       </c>
@@ -9394,7 +9393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>1021</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>1021</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>1021</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>1026</v>
       </c>
@@ -9450,7 +9449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>1026</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>1026</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>1026</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>1026</v>
       </c>
@@ -9506,7 +9505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>1026</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>1026</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>1026</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>1026</v>
       </c>
@@ -9562,7 +9561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>1026</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>1026</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>1026</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>1026</v>
       </c>
@@ -9618,7 +9617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>1026</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>1026</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>1026</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>1026</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>1027</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>1027</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>1027</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>1027</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>1027</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>1027</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
         <v>1027</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>1027</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>1027</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>1027</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>1027</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>1027</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>1027</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>1027</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>1029</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>1029</v>
       </c>
@@ -9898,7 +9897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>1029</v>
       </c>
@@ -9912,7 +9911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>1029</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
         <v>1029</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>1029</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
         <v>1029</v>
       </c>
@@ -9968,7 +9967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>1029</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
         <v>1029</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>1029</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
         <v>1030</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
         <v>1030</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
         <v>1030</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
         <v>1030</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
         <v>1030</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>1030</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1">
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
         <v>1030</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>1030</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" s="4">
         <v>1030</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>1031</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" s="4">
         <v>1031</v>
       </c>
@@ -10164,7 +10163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" s="4">
         <v>1031</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:4">
       <c r="A78" s="4">
         <v>1031</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1">
+    <row r="79" spans="1:4">
       <c r="A79" s="4">
         <v>1031</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" s="4">
         <v>1031</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" s="4">
         <v>1031</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" s="4">
         <v>1031</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4">
       <c r="A83" s="4">
         <v>1033</v>
       </c>
@@ -10262,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4">
       <c r="A84" s="4">
         <v>1036</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:4">
       <c r="A85" s="4">
         <v>1036</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1">
+    <row r="86" spans="1:4">
       <c r="A86" s="4">
         <v>1036</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1">
+    <row r="87" spans="1:4">
       <c r="A87" s="4">
         <v>1036</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1">
+    <row r="88" spans="1:4">
       <c r="A88" s="4">
         <v>1036</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4">
       <c r="A89" s="4">
         <v>1036</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4">
       <c r="A90" s="4">
         <v>1036</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" s="4">
         <v>1036</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4">
       <c r="A92" s="4">
         <v>1036</v>
       </c>
@@ -10388,7 +10387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4">
       <c r="A93" s="4">
         <v>1036</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4">
       <c r="A94" s="4">
         <v>1036</v>
       </c>
@@ -10416,7 +10415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
+    <row r="95" spans="1:4">
       <c r="A95" s="4">
         <v>1036</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4">
       <c r="A96" s="4">
         <v>1036</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
+    <row r="97" spans="1:4">
       <c r="A97" s="4">
         <v>1036</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1">
+    <row r="98" spans="1:4">
       <c r="A98" s="4">
         <v>1036</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4">
       <c r="A99" s="4">
         <v>1036</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4">
       <c r="A100" s="4">
         <v>1036</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4">
       <c r="A101" s="4">
         <v>1036</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4">
       <c r="A102" s="4">
         <v>1036</v>
       </c>
@@ -10528,7 +10527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
+    <row r="103" spans="1:4">
       <c r="A103" s="4">
         <v>1036</v>
       </c>
@@ -10542,7 +10541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4">
       <c r="A104" s="4">
         <v>1036</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4">
       <c r="A105" s="4">
         <v>1036</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4">
       <c r="A106" s="4">
         <v>1038</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4">
       <c r="A107" s="4">
         <v>1038</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:4">
       <c r="A108" s="4">
         <v>1038</v>
       </c>
@@ -10612,7 +10611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4">
       <c r="A109" s="4">
         <v>1038</v>
       </c>
@@ -10626,7 +10625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4">
       <c r="A110" s="4">
         <v>1038</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:4">
       <c r="A111" s="4">
         <v>1038</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4">
       <c r="A112" s="4">
         <v>1038</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" s="4">
         <v>1039</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4">
       <c r="A114" s="4">
         <v>1039</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4">
       <c r="A115" s="4">
         <v>1039</v>
       </c>
@@ -10710,7 +10709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4">
       <c r="A116" s="4">
         <v>1039</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4">
       <c r="A117" s="4">
         <v>1039</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4">
       <c r="A118" s="4">
         <v>1039</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1">
+    <row r="119" spans="1:4">
       <c r="A119" s="4">
         <v>1040</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4">
       <c r="A120" s="4">
         <v>1040</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4">
       <c r="A121" s="4">
         <v>1040</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1">
+    <row r="122" spans="1:4">
       <c r="A122" s="4">
         <v>1040</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4">
       <c r="A123" s="4">
         <v>1040</v>
       </c>
@@ -10822,7 +10821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1">
+    <row r="124" spans="1:4">
       <c r="A124" s="4">
         <v>1041</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1">
+    <row r="125" spans="1:4">
       <c r="A125" s="4">
         <v>1041</v>
       </c>
@@ -10850,7 +10849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1">
+    <row r="126" spans="1:4">
       <c r="A126" s="4">
         <v>1041</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1">
+    <row r="127" spans="1:4">
       <c r="A127" s="4">
         <v>1041</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1">
+    <row r="128" spans="1:4">
       <c r="A128" s="4">
         <v>1042</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" s="4">
         <v>1042</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" s="4">
         <v>1042</v>
       </c>
@@ -10920,7 +10919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" s="4">
         <v>1044</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1">
+    <row r="132" spans="1:4">
       <c r="A132" s="4">
         <v>1044</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1">
+    <row r="133" spans="1:4">
       <c r="A133" s="4">
         <v>1045</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1">
+    <row r="134" spans="1:4">
       <c r="A134" s="4">
         <v>1055</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:4">
       <c r="A135" s="4">
         <v>1056</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1">
+    <row r="136" spans="1:4">
       <c r="A136" s="4">
         <v>1056</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:4">
       <c r="A137" s="4">
         <v>1056</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4">
       <c r="A138" s="4">
         <v>1056</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4">
       <c r="A139" s="4">
         <v>1056</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4">
       <c r="A140" s="4">
         <v>1056</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1">
+    <row r="141" spans="1:4">
       <c r="A141" s="4">
         <v>1056</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4">
       <c r="A142" s="4">
         <v>1056</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4">
       <c r="A143" s="4">
         <v>1056</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4">
       <c r="A144" s="4">
         <v>1056</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:4">
       <c r="A145" s="4">
         <v>1056</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:4">
       <c r="A146" s="4">
         <v>1056</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:4">
       <c r="A147" s="4">
         <v>1056</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:4">
       <c r="A148" s="4">
         <v>1056</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1">
+    <row r="149" spans="1:4">
       <c r="A149" s="4">
         <v>1056</v>
       </c>
@@ -11186,7 +11185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1">
+    <row r="150" spans="1:4">
       <c r="A150" s="4">
         <v>1056</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1">
+    <row r="151" spans="1:4">
       <c r="A151" s="4">
         <v>1056</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:4">
       <c r="A152" s="4">
         <v>1056</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:4">
       <c r="A153" s="4">
         <v>1056</v>
       </c>
@@ -11242,7 +11241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1">
+    <row r="154" spans="1:4">
       <c r="A154" s="4">
         <v>1056</v>
       </c>
@@ -11256,7 +11255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:4">
       <c r="A155" s="4">
         <v>1056</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1">
+    <row r="156" spans="1:4">
       <c r="A156" s="4">
         <v>1057</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1">
+    <row r="157" spans="1:4">
       <c r="A157" s="4">
         <v>1057</v>
       </c>
@@ -11298,7 +11297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1">
+    <row r="158" spans="1:4">
       <c r="A158" s="4">
         <v>1057</v>
       </c>
@@ -11312,7 +11311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1">
+    <row r="159" spans="1:4">
       <c r="A159" s="4">
         <v>1057</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:4">
       <c r="A160" s="4">
         <v>1057</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" s="4">
         <v>1057</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" s="4">
         <v>1057</v>
       </c>
@@ -11368,7 +11367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" s="4">
         <v>1057</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4">
       <c r="A164" s="4">
         <v>1057</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" s="4">
         <v>1057</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1">
+    <row r="166" spans="1:4">
       <c r="A166" s="4">
         <v>1057</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1">
+    <row r="167" spans="1:4">
       <c r="A167" s="4">
         <v>1057</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1">
+    <row r="168" spans="1:4">
       <c r="A168" s="4">
         <v>1057</v>
       </c>
@@ -11452,7 +11451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1">
+    <row r="169" spans="1:4">
       <c r="A169" s="4">
         <v>1057</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" s="4">
         <v>1057</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" s="4">
         <v>1057</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" s="4">
         <v>1059</v>
       </c>
@@ -11508,7 +11507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" s="4">
         <v>1059</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" s="4">
         <v>1059</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4">
       <c r="A175" s="4">
         <v>1059</v>
       </c>
@@ -11550,7 +11549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" s="4">
         <v>1059</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" s="4">
         <v>1059</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1">
+    <row r="178" spans="1:4">
       <c r="A178" s="4">
         <v>1059</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1">
+    <row r="179" spans="1:4">
       <c r="A179" s="4">
         <v>1059</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1">
+    <row r="180" spans="1:4">
       <c r="A180" s="4">
         <v>1059</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1">
+    <row r="181" spans="1:4">
       <c r="A181" s="4">
         <v>1059</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:4">
       <c r="A182" s="4">
         <v>1059</v>
       </c>
@@ -11648,7 +11647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:4">
       <c r="A183" s="4">
         <v>1059</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:4">
       <c r="A184" s="4">
         <v>1059</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" s="4">
         <v>1060</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" s="4">
         <v>1060</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4">
       <c r="A187" s="4">
         <v>1060</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" s="4">
         <v>1060</v>
       </c>
@@ -11732,7 +11731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4">
       <c r="A189" s="4">
         <v>1060</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4">
       <c r="A190" s="4">
         <v>1060</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4">
       <c r="A191" s="4">
         <v>1060</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4">
       <c r="A192" s="4">
         <v>1060</v>
       </c>
@@ -11788,7 +11787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" s="4">
         <v>1060</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" s="4">
         <v>1060</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" s="4">
         <v>1060</v>
       </c>
@@ -11830,7 +11829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" s="4">
         <v>1060</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" s="4">
         <v>1060</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4">
       <c r="A198" s="4">
         <v>1060</v>
       </c>
@@ -11872,7 +11871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4">
       <c r="A199" s="4">
         <v>1060</v>
       </c>
@@ -11886,7 +11885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4">
       <c r="A200" s="4">
         <v>1060</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1">
+    <row r="201" spans="1:4">
       <c r="A201" s="4">
         <v>1060</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4">
       <c r="A202" s="4">
         <v>1060</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4">
       <c r="A203" s="4">
         <v>1061</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4">
       <c r="A204" s="4">
         <v>1061</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4">
       <c r="A205" s="4">
         <v>1061</v>
       </c>
@@ -11970,7 +11969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4">
       <c r="A206" s="4">
         <v>1061</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:4">
       <c r="A207" s="4">
         <v>1061</v>
       </c>
@@ -11998,7 +11997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4">
       <c r="A208" s="4">
         <v>1061</v>
       </c>
@@ -12012,7 +12011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1">
+    <row r="209" spans="1:4">
       <c r="A209" s="4">
         <v>1061</v>
       </c>
@@ -12026,7 +12025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:4">
       <c r="A210" s="4">
         <v>1061</v>
       </c>
@@ -12040,7 +12039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:4">
       <c r="A211" s="4">
         <v>1061</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1">
+    <row r="212" spans="1:4">
       <c r="A212" s="4">
         <v>1061</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1">
+    <row r="213" spans="1:4">
       <c r="A213" s="4">
         <v>1061</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1">
+    <row r="214" spans="1:4">
       <c r="A214" s="4">
         <v>1061</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1">
+    <row r="215" spans="1:4">
       <c r="A215" s="4">
         <v>1061</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1">
+    <row r="216" spans="1:4">
       <c r="A216" s="4">
         <v>1061</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1">
+    <row r="217" spans="1:4">
       <c r="A217" s="4">
         <v>1061</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1">
+    <row r="218" spans="1:4">
       <c r="A218" s="4">
         <v>1061</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1">
+    <row r="219" spans="1:4">
       <c r="A219" s="4">
         <v>1062</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1">
+    <row r="220" spans="1:4">
       <c r="A220" s="4">
         <v>1062</v>
       </c>
@@ -12180,7 +12179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1">
+    <row r="221" spans="1:4">
       <c r="A221" s="4">
         <v>1062</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1">
+    <row r="222" spans="1:4">
       <c r="A222" s="4">
         <v>1062</v>
       </c>
@@ -12208,7 +12207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1">
+    <row r="223" spans="1:4">
       <c r="A223" s="4">
         <v>1062</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1">
+    <row r="224" spans="1:4">
       <c r="A224" s="4">
         <v>1062</v>
       </c>
@@ -12236,7 +12235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1">
+    <row r="225" spans="1:4">
       <c r="A225" s="4">
         <v>1062</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1">
+    <row r="226" spans="1:4">
       <c r="A226" s="4">
         <v>1062</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1">
+    <row r="227" spans="1:4">
       <c r="A227" s="4">
         <v>1062</v>
       </c>
@@ -12278,7 +12277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1">
+    <row r="228" spans="1:4">
       <c r="A228" s="4">
         <v>1062</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1">
+    <row r="229" spans="1:4">
       <c r="A229" s="4">
         <v>1062</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1">
+    <row r="230" spans="1:4">
       <c r="A230" s="4">
         <v>1062</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1">
+    <row r="231" spans="1:4">
       <c r="A231" s="4">
         <v>1062</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1">
+    <row r="232" spans="1:4">
       <c r="A232" s="4">
         <v>1062</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1">
+    <row r="233" spans="1:4">
       <c r="A233" s="4">
         <v>1062</v>
       </c>
@@ -12362,7 +12361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1">
+    <row r="234" spans="1:4">
       <c r="A234" s="4">
         <v>1062</v>
       </c>
@@ -12376,7 +12375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1">
+    <row r="235" spans="1:4">
       <c r="A235" s="4">
         <v>1063</v>
       </c>
@@ -12390,7 +12389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1">
+    <row r="236" spans="1:4">
       <c r="A236" s="4">
         <v>1063</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1">
+    <row r="237" spans="1:4">
       <c r="A237" s="4">
         <v>1063</v>
       </c>
@@ -12418,7 +12417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1">
+    <row r="238" spans="1:4">
       <c r="A238" s="4">
         <v>1063</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1">
+    <row r="239" spans="1:4">
       <c r="A239" s="4">
         <v>1063</v>
       </c>
@@ -12446,7 +12445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1">
+    <row r="240" spans="1:4">
       <c r="A240" s="4">
         <v>1063</v>
       </c>
@@ -12460,7 +12459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
+    <row r="241" spans="1:4">
       <c r="A241" s="4">
         <v>1063</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1">
+    <row r="242" spans="1:4">
       <c r="A242" s="4">
         <v>1063</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:4">
       <c r="A243" s="4">
         <v>1063</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1">
+    <row r="244" spans="1:4">
       <c r="A244" s="4">
         <v>1063</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1">
+    <row r="245" spans="1:4">
       <c r="A245" s="4">
         <v>1063</v>
       </c>
@@ -12530,7 +12529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1">
+    <row r="246" spans="1:4">
       <c r="A246" s="4">
         <v>1063</v>
       </c>
@@ -12544,7 +12543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1">
+    <row r="247" spans="1:4">
       <c r="A247" s="4">
         <v>1063</v>
       </c>
@@ -12558,7 +12557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1">
+    <row r="248" spans="1:4">
       <c r="A248" s="4">
         <v>1063</v>
       </c>
@@ -12572,7 +12571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1">
+    <row r="249" spans="1:4">
       <c r="A249" s="4">
         <v>1064</v>
       </c>
@@ -12586,7 +12585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1">
+    <row r="250" spans="1:4">
       <c r="A250" s="4">
         <v>1064</v>
       </c>
@@ -12600,7 +12599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1">
+    <row r="251" spans="1:4">
       <c r="A251" s="4">
         <v>1064</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1">
+    <row r="252" spans="1:4">
       <c r="A252" s="4">
         <v>1064</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1">
+    <row r="253" spans="1:4">
       <c r="A253" s="4">
         <v>1064</v>
       </c>
@@ -12642,7 +12641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1">
+    <row r="254" spans="1:4">
       <c r="A254" s="4">
         <v>1064</v>
       </c>
@@ -12656,7 +12655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1">
+    <row r="255" spans="1:4">
       <c r="A255" s="4">
         <v>1064</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1">
+    <row r="256" spans="1:4">
       <c r="A256" s="4">
         <v>1064</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1">
+    <row r="257" spans="1:4">
       <c r="A257" s="4">
         <v>1064</v>
       </c>
@@ -12698,7 +12697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1">
+    <row r="258" spans="1:4">
       <c r="A258" s="4">
         <v>1064</v>
       </c>
@@ -12712,7 +12711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1">
+    <row r="259" spans="1:4">
       <c r="A259" s="4">
         <v>1064</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1">
+    <row r="260" spans="1:4">
       <c r="A260" s="4">
         <v>1064</v>
       </c>
@@ -12740,7 +12739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1">
+    <row r="261" spans="1:4">
       <c r="A261" s="4">
         <v>1064</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1">
+    <row r="262" spans="1:4">
       <c r="A262" s="4">
         <v>1064</v>
       </c>
@@ -12768,7 +12767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1">
+    <row r="263" spans="1:4">
       <c r="A263" s="4">
         <v>1065</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1">
+    <row r="264" spans="1:4">
       <c r="A264" s="4">
         <v>1065</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1">
+    <row r="265" spans="1:4">
       <c r="A265" s="4">
         <v>1065</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1">
+    <row r="266" spans="1:4">
       <c r="A266" s="4">
         <v>1065</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1">
+    <row r="267" spans="1:4">
       <c r="A267" s="4">
         <v>1065</v>
       </c>
@@ -12838,7 +12837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1">
+    <row r="268" spans="1:4">
       <c r="A268" s="4">
         <v>1065</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1">
+    <row r="269" spans="1:4">
       <c r="A269" s="4">
         <v>1065</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1">
+    <row r="270" spans="1:4">
       <c r="A270" s="4">
         <v>1065</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1">
+    <row r="271" spans="1:4">
       <c r="A271" s="4">
         <v>1065</v>
       </c>
@@ -12894,7 +12893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1">
+    <row r="272" spans="1:4">
       <c r="A272" s="4">
         <v>1065</v>
       </c>
@@ -12908,7 +12907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1">
+    <row r="273" spans="1:4">
       <c r="A273" s="4">
         <v>1065</v>
       </c>
@@ -12922,7 +12921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" s="4">
         <v>1065</v>
       </c>
@@ -12936,7 +12935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" s="4">
         <v>1065</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" s="4">
         <v>1066</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" s="4">
         <v>1066</v>
       </c>
@@ -12978,7 +12977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" s="4">
         <v>1066</v>
       </c>
@@ -12992,7 +12991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1">
+    <row r="279" spans="1:4">
       <c r="A279" s="4">
         <v>1066</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:4">
       <c r="A280" s="4">
         <v>1066</v>
       </c>
@@ -13020,7 +13019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" s="4">
         <v>1066</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" s="4">
         <v>1066</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" s="4">
         <v>1066</v>
       </c>
@@ -13062,7 +13061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" s="4">
         <v>1066</v>
       </c>
@@ -13076,7 +13075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" s="4">
         <v>1066</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" s="4">
         <v>1066</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" s="4">
         <v>1068</v>
       </c>
@@ -13118,7 +13117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4">
       <c r="A288" s="4">
         <v>1068</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1">
+    <row r="289" spans="1:4">
       <c r="A289" s="4">
         <v>1073</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4">
       <c r="A290" s="4">
         <v>1073</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:4">
       <c r="A291" s="4">
         <v>1073</v>
       </c>
@@ -13174,7 +13173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:4">
       <c r="A292" s="4">
         <v>1073</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:4">
       <c r="A293" s="4">
         <v>1073</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:4">
       <c r="A294" s="4">
         <v>1073</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1">
+    <row r="295" spans="1:4">
       <c r="A295" s="4">
         <v>1073</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1">
+    <row r="296" spans="1:4">
       <c r="A296" s="4">
         <v>1073</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1">
+    <row r="297" spans="1:4">
       <c r="A297" s="4">
         <v>1073</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1">
+    <row r="298" spans="1:4">
       <c r="A298" s="4">
         <v>1073</v>
       </c>
@@ -13272,7 +13271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1">
+    <row r="299" spans="1:4">
       <c r="A299" s="4">
         <v>1073</v>
       </c>
@@ -13286,7 +13285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1">
+    <row r="300" spans="1:4">
       <c r="A300" s="4">
         <v>1074</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1">
+    <row r="301" spans="1:4">
       <c r="A301" s="4">
         <v>1074</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1">
+    <row r="302" spans="1:4">
       <c r="A302" s="4">
         <v>1074</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1">
+    <row r="303" spans="1:4">
       <c r="A303" s="4">
         <v>1074</v>
       </c>
@@ -13342,7 +13341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1">
+    <row r="304" spans="1:4">
       <c r="A304" s="4">
         <v>1074</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1">
+    <row r="305" spans="1:4">
       <c r="A305" s="4">
         <v>1074</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1">
+    <row r="306" spans="1:4">
       <c r="A306" s="4">
         <v>1074</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1">
+    <row r="307" spans="1:4">
       <c r="A307" s="4">
         <v>1074</v>
       </c>
@@ -13398,7 +13397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1">
+    <row r="308" spans="1:4">
       <c r="A308" s="4">
         <v>1074</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1">
+    <row r="309" spans="1:4">
       <c r="A309" s="4">
         <v>1074</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1">
+    <row r="310" spans="1:4">
       <c r="A310" s="4">
         <v>1075</v>
       </c>
@@ -13440,7 +13439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1">
+    <row r="311" spans="1:4">
       <c r="A311" s="4">
         <v>1075</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1">
+    <row r="312" spans="1:4">
       <c r="A312" s="4">
         <v>1075</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1">
+    <row r="313" spans="1:4">
       <c r="A313" s="4">
         <v>1075</v>
       </c>
@@ -13482,7 +13481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1">
+    <row r="314" spans="1:4">
       <c r="A314" s="4">
         <v>1075</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1">
+    <row r="315" spans="1:4">
       <c r="A315" s="4">
         <v>1075</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1">
+    <row r="316" spans="1:4">
       <c r="A316" s="4">
         <v>1075</v>
       </c>
@@ -13524,7 +13523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1">
+    <row r="317" spans="1:4">
       <c r="A317" s="4">
         <v>1075</v>
       </c>
@@ -13538,7 +13537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1">
+    <row r="318" spans="1:4">
       <c r="A318" s="4">
         <v>1075</v>
       </c>
@@ -13552,7 +13551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1">
+    <row r="319" spans="1:4">
       <c r="A319" s="4">
         <v>1076</v>
       </c>
@@ -13566,7 +13565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1">
+    <row r="320" spans="1:4">
       <c r="A320" s="4">
         <v>1076</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1">
+    <row r="321" spans="1:4">
       <c r="A321" s="4">
         <v>1076</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1">
+    <row r="322" spans="1:4">
       <c r="A322" s="4">
         <v>1076</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1">
+    <row r="323" spans="1:4">
       <c r="A323" s="4">
         <v>1076</v>
       </c>
@@ -13622,7 +13621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1">
+    <row r="324" spans="1:4">
       <c r="A324" s="4">
         <v>1076</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1">
+    <row r="325" spans="1:4">
       <c r="A325" s="4">
         <v>1076</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1">
+    <row r="326" spans="1:4">
       <c r="A326" s="4">
         <v>1076</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1">
+    <row r="327" spans="1:4">
       <c r="A327" s="4">
         <v>1076</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1">
+    <row r="328" spans="1:4">
       <c r="A328" s="4">
         <v>1076</v>
       </c>
@@ -13692,7 +13691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1">
+    <row r="329" spans="1:4">
       <c r="A329" s="4">
         <v>1076</v>
       </c>
@@ -13706,7 +13705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1">
+    <row r="330" spans="1:4">
       <c r="A330" s="4">
         <v>1077</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1">
+    <row r="331" spans="1:4">
       <c r="A331" s="4">
         <v>1077</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1">
+    <row r="332" spans="1:4">
       <c r="A332" s="4">
         <v>1077</v>
       </c>
@@ -13748,7 +13747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1">
+    <row r="333" spans="1:4">
       <c r="A333" s="4">
         <v>1077</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1">
+    <row r="334" spans="1:4">
       <c r="A334" s="4">
         <v>1078</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1">
+    <row r="335" spans="1:4">
       <c r="A335" s="4">
         <v>1078</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1">
+    <row r="336" spans="1:4">
       <c r="A336" s="4">
         <v>1078</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1">
+    <row r="337" spans="1:4">
       <c r="A337" s="4">
         <v>1078</v>
       </c>
@@ -13818,7 +13817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1">
+    <row r="338" spans="1:4">
       <c r="A338" s="4">
         <v>1078</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1">
+    <row r="339" spans="1:4">
       <c r="A339" s="4">
         <v>1078</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1">
+    <row r="340" spans="1:4">
       <c r="A340" s="4">
         <v>1078</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1">
+    <row r="341" spans="1:4">
       <c r="A341" s="4">
         <v>1078</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1">
+    <row r="342" spans="1:4">
       <c r="A342" s="4">
         <v>1081</v>
       </c>
@@ -13888,7 +13887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1">
+    <row r="343" spans="1:4">
       <c r="A343" s="4">
         <v>1081</v>
       </c>
@@ -13902,7 +13901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1">
+    <row r="344" spans="1:4">
       <c r="A344" s="4">
         <v>1081</v>
       </c>
@@ -13916,7 +13915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1">
+    <row r="345" spans="1:4">
       <c r="A345" s="4">
         <v>1081</v>
       </c>
@@ -13930,7 +13929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1">
+    <row r="346" spans="1:4">
       <c r="A346" s="4">
         <v>1081</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1">
+    <row r="347" spans="1:4">
       <c r="A347" s="4">
         <v>1081</v>
       </c>
@@ -13958,7 +13957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1">
+    <row r="348" spans="1:4">
       <c r="A348" s="4">
         <v>1081</v>
       </c>
@@ -13972,7 +13971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1">
+    <row r="349" spans="1:4">
       <c r="A349" s="4">
         <v>1081</v>
       </c>
@@ -13986,7 +13985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1">
+    <row r="350" spans="1:4">
       <c r="A350" s="4">
         <v>1081</v>
       </c>
@@ -14000,7 +13999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:4">
       <c r="A351" s="4">
         <v>1082</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" s="4">
         <v>1082</v>
       </c>
@@ -14028,7 +14027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1">
+    <row r="353" spans="1:4">
       <c r="A353" s="4">
         <v>1082</v>
       </c>
@@ -14042,7 +14041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1">
+    <row r="354" spans="1:4">
       <c r="A354" s="4">
         <v>1082</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1">
+    <row r="355" spans="1:4">
       <c r="A355" s="4">
         <v>1082</v>
       </c>
@@ -14070,7 +14069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1">
+    <row r="356" spans="1:4">
       <c r="A356" s="4">
         <v>1082</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1">
+    <row r="357" spans="1:4">
       <c r="A357" s="4">
         <v>1082</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1">
+    <row r="358" spans="1:4">
       <c r="A358" s="4">
         <v>1082</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1">
+    <row r="359" spans="1:4">
       <c r="A359" s="4">
         <v>1087</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1">
+    <row r="360" spans="1:4">
       <c r="A360" s="4">
         <v>1087</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1">
+    <row r="361" spans="1:4">
       <c r="A361" s="4">
         <v>1087</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1">
+    <row r="362" spans="1:4">
       <c r="A362" s="4">
         <v>1087</v>
       </c>
@@ -14168,7 +14167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1">
+    <row r="363" spans="1:4">
       <c r="A363" s="4">
         <v>1088</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1">
+    <row r="364" spans="1:4">
       <c r="A364" s="4">
         <v>1088</v>
       </c>
@@ -14196,7 +14195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1">
+    <row r="365" spans="1:4">
       <c r="A365" s="4">
         <v>1088</v>
       </c>
@@ -14210,7 +14209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1">
+    <row r="366" spans="1:4">
       <c r="A366" s="4">
         <v>1088</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1">
+    <row r="367" spans="1:4">
       <c r="A367" s="4">
         <v>1088</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1">
+    <row r="368" spans="1:4">
       <c r="A368" s="4">
         <v>1088</v>
       </c>
@@ -14252,7 +14251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1">
+    <row r="369" spans="1:4">
       <c r="A369" s="4">
         <v>1089</v>
       </c>
@@ -14266,7 +14265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1">
+    <row r="370" spans="1:4">
       <c r="A370" s="4">
         <v>1089</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1">
+    <row r="371" spans="1:4">
       <c r="A371" s="4">
         <v>1089</v>
       </c>
@@ -14294,7 +14293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1">
+    <row r="372" spans="1:4">
       <c r="A372" s="4">
         <v>1089</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1">
+    <row r="373" spans="1:4">
       <c r="A373" s="4">
         <v>1090</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1">
+    <row r="374" spans="1:4">
       <c r="A374" s="4">
         <v>1090</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1">
+    <row r="375" spans="1:4">
       <c r="A375" s="4">
         <v>1090</v>
       </c>
@@ -14350,7 +14349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:4">
       <c r="A376" s="4">
         <v>1091</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:4">
       <c r="A377" s="4">
         <v>1091</v>
       </c>
@@ -14378,7 +14377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1">
+    <row r="378" spans="1:4">
       <c r="A378" s="4">
         <v>1092</v>
       </c>
@@ -14392,7 +14391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1">
+    <row r="379" spans="1:4">
       <c r="A379" s="4">
         <v>1092</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1">
+    <row r="380" spans="1:4">
       <c r="A380" s="4">
         <v>1093</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1">
+    <row r="381" spans="1:4">
       <c r="A381" s="4">
         <v>1098</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1">
+    <row r="382" spans="1:4">
       <c r="A382" s="4">
         <v>1098</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1">
+    <row r="383" spans="1:4">
       <c r="A383" s="4">
         <v>1098</v>
       </c>
@@ -14462,7 +14461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1">
+    <row r="384" spans="1:4">
       <c r="A384" s="4">
         <v>1098</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1">
+    <row r="385" spans="1:4">
       <c r="A385" s="4">
         <v>1098</v>
       </c>
@@ -14490,7 +14489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1">
+    <row r="386" spans="1:4">
       <c r="A386" s="4">
         <v>1098</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1">
+    <row r="387" spans="1:4">
       <c r="A387" s="4">
         <v>1098</v>
       </c>
@@ -14518,7 +14517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" s="4">
         <v>1098</v>
       </c>
@@ -14532,7 +14531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1">
+    <row r="389" spans="1:4">
       <c r="A389" s="4">
         <v>1098</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1">
+    <row r="390" spans="1:4">
       <c r="A390" s="4">
         <v>1098</v>
       </c>
@@ -14560,7 +14559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:4">
       <c r="A391" s="4">
         <v>1105</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4">
       <c r="A392" s="4">
         <v>1107</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4">
       <c r="A393" s="4">
         <v>1107</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4">
       <c r="A394" s="4">
         <v>1107</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1">
+    <row r="395" spans="1:4">
       <c r="A395" s="4">
         <v>1107</v>
       </c>
@@ -14630,7 +14629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1">
+    <row r="396" spans="1:4">
       <c r="A396" s="4">
         <v>1107</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
+    <row r="397" spans="1:4">
       <c r="A397" s="4">
         <v>1107</v>
       </c>
@@ -14658,7 +14657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1">
+    <row r="398" spans="1:4">
       <c r="A398" s="4">
         <v>1107</v>
       </c>
@@ -14672,7 +14671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1">
+    <row r="399" spans="1:4">
       <c r="A399" s="4">
         <v>1107</v>
       </c>
@@ -14686,7 +14685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1">
+    <row r="400" spans="1:4">
       <c r="A400" s="4">
         <v>1107</v>
       </c>
@@ -14700,7 +14699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1">
+    <row r="401" spans="1:4">
       <c r="A401" s="4">
         <v>1108</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1">
+    <row r="402" spans="1:4">
       <c r="A402" s="4">
         <v>1108</v>
       </c>
@@ -14728,7 +14727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1">
+    <row r="403" spans="1:4">
       <c r="A403" s="4">
         <v>1108</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1">
+    <row r="404" spans="1:4">
       <c r="A404" s="4">
         <v>1108</v>
       </c>
@@ -14756,7 +14755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1">
+    <row r="405" spans="1:4">
       <c r="A405" s="4">
         <v>1108</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1">
+    <row r="406" spans="1:4">
       <c r="A406" s="4">
         <v>1108</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1">
+    <row r="407" spans="1:4">
       <c r="A407" s="4">
         <v>1108</v>
       </c>
@@ -14798,7 +14797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1">
+    <row r="408" spans="1:4">
       <c r="A408" s="4">
         <v>1109</v>
       </c>
@@ -14812,7 +14811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1">
+    <row r="409" spans="1:4">
       <c r="A409" s="4">
         <v>1109</v>
       </c>
@@ -14826,7 +14825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1">
+    <row r="410" spans="1:4">
       <c r="A410" s="4">
         <v>1109</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1">
+    <row r="411" spans="1:4">
       <c r="A411" s="4">
         <v>1109</v>
       </c>
@@ -14854,7 +14853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1">
+    <row r="412" spans="1:4">
       <c r="A412" s="4">
         <v>1109</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1">
+    <row r="413" spans="1:4">
       <c r="A413" s="4">
         <v>1109</v>
       </c>
@@ -14882,7 +14881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1">
+    <row r="414" spans="1:4">
       <c r="A414" s="4">
         <v>1110</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1">
+    <row r="415" spans="1:4">
       <c r="A415" s="4">
         <v>1110</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1">
+    <row r="416" spans="1:4">
       <c r="A416" s="4">
         <v>1110</v>
       </c>
@@ -14924,7 +14923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1">
+    <row r="417" spans="1:4">
       <c r="A417" s="4">
         <v>1110</v>
       </c>
@@ -14938,7 +14937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1">
+    <row r="418" spans="1:4">
       <c r="A418" s="4">
         <v>1110</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1">
+    <row r="419" spans="1:4">
       <c r="A419" s="4">
         <v>1115</v>
       </c>
@@ -14966,7 +14965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1">
+    <row r="420" spans="1:4">
       <c r="A420" s="4">
         <v>1115</v>
       </c>
@@ -14980,7 +14979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1">
+    <row r="421" spans="1:4">
       <c r="A421" s="4">
         <v>1115</v>
       </c>
@@ -14994,7 +14993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1">
+    <row r="422" spans="1:4">
       <c r="A422" s="4">
         <v>1115</v>
       </c>
@@ -15008,7 +15007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1">
+    <row r="423" spans="1:4">
       <c r="A423" s="4">
         <v>1116</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1">
+    <row r="424" spans="1:4">
       <c r="A424" s="4">
         <v>1116</v>
       </c>
@@ -15036,7 +15035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1">
+    <row r="425" spans="1:4">
       <c r="A425" s="4">
         <v>1116</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1">
+    <row r="426" spans="1:4">
       <c r="A426" s="4">
         <v>1116</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1">
+    <row r="427" spans="1:4">
       <c r="A427" s="4">
         <v>1121</v>
       </c>
@@ -15078,7 +15077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1">
+    <row r="428" spans="1:4">
       <c r="A428" s="4">
         <v>1121</v>
       </c>
@@ -15092,7 +15091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1">
+    <row r="429" spans="1:4">
       <c r="A429" s="4">
         <v>1122</v>
       </c>
@@ -15106,7 +15105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1">
+    <row r="430" spans="1:4">
       <c r="A430" s="4">
         <v>1122</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1">
+    <row r="431" spans="1:4">
       <c r="A431" s="4">
         <v>1122</v>
       </c>
@@ -15134,7 +15133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1">
+    <row r="432" spans="1:4">
       <c r="A432" s="4">
         <v>1122</v>
       </c>
@@ -15148,7 +15147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1">
+    <row r="433" spans="1:4">
       <c r="A433" s="4">
         <v>1126</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1">
+    <row r="434" spans="1:4">
       <c r="A434" s="4">
         <v>1126</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1">
+    <row r="435" spans="1:4">
       <c r="A435" s="4">
         <v>1126</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1">
+    <row r="436" spans="1:4">
       <c r="A436" s="4">
         <v>1128</v>
       </c>
@@ -15204,7 +15203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1">
+    <row r="437" spans="1:4">
       <c r="A437" s="4">
         <v>1128</v>
       </c>
@@ -15218,7 +15217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1">
+    <row r="438" spans="1:4">
       <c r="A438" s="4">
         <v>1129</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1">
+    <row r="439" spans="1:4">
       <c r="A439" s="4">
         <v>1140</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1">
+    <row r="440" spans="1:4">
       <c r="A440" s="4">
         <v>1140</v>
       </c>
@@ -15260,7 +15259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1">
+    <row r="441" spans="1:4">
       <c r="A441" s="4">
         <v>1148</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1">
+    <row r="442" spans="1:4">
       <c r="A442" s="4">
         <v>1228</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1">
+    <row r="443" spans="1:4">
       <c r="A443" s="4">
         <v>1232</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1">
+    <row r="444" spans="1:4">
       <c r="A444" s="4">
         <v>1235</v>
       </c>
@@ -15330,7 +15329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1">
+    <row r="446" spans="1:4">
       <c r="A446" s="4">
         <v>1242</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1">
+    <row r="447" spans="1:4">
       <c r="A447" s="4">
         <v>1252</v>
       </c>
@@ -15358,7 +15357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1">
+    <row r="448" spans="1:4">
       <c r="A448" s="4">
         <v>1254</v>
       </c>
@@ -15442,7 +15441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1">
+    <row r="454" spans="1:4">
       <c r="A454" s="4">
         <v>1294</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1">
+    <row r="457" spans="1:4">
       <c r="A457" s="4">
         <v>1297</v>
       </c>
@@ -15498,7 +15497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1">
+    <row r="458" spans="1:4">
       <c r="A458" s="4">
         <v>1297</v>
       </c>
@@ -15512,7 +15511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1">
+    <row r="459" spans="1:4">
       <c r="A459" s="4">
         <v>1297</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1">
+    <row r="461" spans="1:4">
       <c r="A461" s="4">
         <v>1298</v>
       </c>
@@ -15554,7 +15553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1">
+    <row r="462" spans="1:4">
       <c r="A462" s="4">
         <v>1298</v>
       </c>
@@ -15568,7 +15567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1">
+    <row r="463" spans="1:4">
       <c r="A463" s="4">
         <v>1298</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1">
+    <row r="464" spans="1:4">
       <c r="A464" s="4">
         <v>1299</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1">
+    <row r="465" spans="1:4">
       <c r="A465" s="4">
         <v>1299</v>
       </c>
@@ -15610,7 +15609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1">
+    <row r="466" spans="1:4">
       <c r="A466" s="4">
         <v>1299</v>
       </c>
@@ -15667,13 +15666,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D469" xr:uid="{F745CDF1-6190-4F49-89E6-75C68145E45A}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="X"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D469" xr:uid="{F745CDF1-6190-4F49-89E6-75C68145E45A}"/>
   <mergeCells count="2">
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J6"/>
@@ -15687,8 +15680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954C3BAB-0B7C-4166-870E-642DF4F95EAB}">
   <dimension ref="A1:N1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A954"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -30065,9 +30058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0356AC03-A0D4-40BD-87A7-9B6135A5BF10}">
   <dimension ref="A1:N1389"/>
   <sheetViews>
-    <sheetView topLeftCell="A707" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A759"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -66958,8 +66949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F0347E-5B60-4FB8-86F1-FC17F92EB0D7}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/results_gpt_approach/Redundancy_Analyse.xlsx
+++ b/results_gpt_approach/Redundancy_Analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\GraphAndLLMbasedRedundancyAnalysis\results_gpt_approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0E3B77-205C-4F3D-9772-64A342230875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC274CF-E20B-4525-924B-A21E2A2E036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-80" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{79D69BF5-E829-4324-9BC3-87AC4BA8D8FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{79D69BF5-E829-4324-9BC3-87AC4BA8D8FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8968" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8983" uniqueCount="151">
   <si>
     <t>USID 1</t>
   </si>
@@ -2176,13 +2176,7 @@
     <t>Overlaps to Graph in procentiage</t>
   </si>
   <si>
-    <t>Results of Overlaps</t>
-  </si>
-  <si>
     <t>Results of Predictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many redunancies find the GT in difference to the llm </t>
   </si>
   <si>
     <t>00_g19.json / 00_g22.json</t>
@@ -2207,6 +2201,12 @@
   </si>
   <si>
     <t>Not found in procentiage</t>
+  </si>
+  <si>
+    <t>Results of Overlaps (whole entry)</t>
+  </si>
+  <si>
+    <t>Results of Overlaps (based on just on main part or benefit)</t>
   </si>
 </sst>
 </file>
@@ -2639,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D32CB7-AB28-4E7E-801B-7875D2D0C9A5}">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2684,7 +2684,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="8"/>
       <c r="H1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -2692,7 +2692,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="O1" s="12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
@@ -2706,11 +2706,6 @@
       <c r="AB1" s="13"/>
       <c r="AC1" s="13"/>
     </row>
-    <row r="2" spans="1:35">
-      <c r="Z2" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="3" spans="1:35" ht="52.5">
       <c r="A3" s="2" t="s">
         <v>17</v>
@@ -2761,25 +2756,25 @@
         <v>139</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="W3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="28">
@@ -2809,7 +2804,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J4" s="3">
         <v>2032</v>
@@ -2829,18 +2824,19 @@
         <v>26</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="3">
-        <v>468</v>
+        <f>T4+W4</f>
+        <v>480</v>
       </c>
       <c r="R4" s="6">
         <f>(100/($C$8+$E$8+$C$9+$E$9))*$Q$4</f>
-        <v>75.850891410048618</v>
+        <v>77.795786061588331</v>
       </c>
       <c r="S4" s="6">
         <f>100-$R4</f>
-        <v>24.149108589951382</v>
+        <v>22.204213938411669</v>
       </c>
       <c r="T4" s="3">
         <v>468</v>
@@ -2892,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J5" s="3">
         <v>1750</v>
@@ -2912,18 +2908,19 @@
         <v>29</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="3">
-        <v>393</v>
+        <f>T5+W5</f>
+        <v>407</v>
       </c>
       <c r="R5" s="6">
         <f>(100/($C$8+$E$8+$C$9+$E$9))*$Q$5</f>
-        <v>63.695299837925447</v>
+        <v>65.964343598055109</v>
       </c>
       <c r="S5" s="6">
         <f>100-$R5</f>
-        <v>36.304700162074553</v>
+        <v>34.035656401944891</v>
       </c>
       <c r="T5" s="3">
         <v>378</v>
@@ -2975,7 +2972,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J6" s="3">
         <f>(100/$G$4)*$J$4</f>
@@ -3021,7 +3018,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J7" s="3">
         <f>(100/$G$6)*$J$5</f>
@@ -3039,21 +3036,23 @@
         <f>(100/$G$7)*$M$5</f>
         <v>33.471074380165291</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="O7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="11"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" ht="28">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>27</v>
@@ -3062,18 +3061,18 @@
         <v>547</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="28">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="52.5">
       <c r="A9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>28</v>
@@ -3082,22 +3081,140 @@
         <v>35</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3">
         <v>32</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="28">
+      <c r="O10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>T10+W10</f>
+        <v>493</v>
+      </c>
+      <c r="R10" s="6">
+        <f>(100/($C$8+$E$8+$C$9+$E$9))*$Q$10</f>
+        <v>79.902755267423018</v>
+      </c>
+      <c r="S10" s="6">
+        <f>100-$R10</f>
+        <v>20.097244732576982</v>
+      </c>
+      <c r="T10" s="3">
+        <v>468</v>
+      </c>
+      <c r="U10" s="3">
+        <f>100/(SUM($C$8:$C$9))*$T$10</f>
+        <v>80.412371134020617</v>
+      </c>
+      <c r="V10" s="3">
+        <f>100-$U10</f>
+        <v>19.587628865979383</v>
+      </c>
+      <c r="W10" s="6">
+        <v>25</v>
+      </c>
+      <c r="X10" s="3">
+        <f>100/(SUM($E$8:$E$9))*$W$10</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="Y10">
+        <f>100-$X10</f>
+        <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="42">
+      <c r="O11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>T11+W11</f>
+        <v>600</v>
+      </c>
+      <c r="R11" s="6">
+        <f>(100/($C$8+$E$8+$C$9+$E$9))*$Q$11</f>
+        <v>97.244732576985413</v>
+      </c>
+      <c r="S11" s="6">
+        <f>100-$R11</f>
+        <v>2.7552674230145868</v>
+      </c>
+      <c r="T11" s="3">
+        <v>565</v>
+      </c>
+      <c r="U11" s="3">
+        <f>100/(SUM($C$8:$C$9))*$T$11</f>
+        <v>97.079037800687288</v>
+      </c>
+      <c r="V11" s="3">
+        <f>100-$U11</f>
+        <v>2.9209621993127115</v>
+      </c>
+      <c r="W11" s="6">
+        <v>35</v>
+      </c>
+      <c r="X11" s="3">
+        <f>100/(SUM($E$8:$E$9))*$W$11</f>
+        <v>100</v>
+      </c>
+      <c r="Y11">
+        <f>100-$X11</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:F7" xr:uid="{98D32CB7-AB28-4E7E-801B-7875D2D0C9A5}"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="O7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9040,7 +9157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745CDF1-6190-4F49-89E6-75C68145E45A}">
   <dimension ref="A1:N469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/results_gpt_approach/Redundancy_Analyse.xlsx
+++ b/results_gpt_approach/Redundancy_Analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\GraphAndLLMbasedRedundancyAnalysis\results_gpt_approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC274CF-E20B-4525-924B-A21E2A2E036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5699FFE-ACCB-42D2-A954-82228A153903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{79D69BF5-E829-4324-9BC3-87AC4BA8D8FB}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8983" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8992" uniqueCount="159">
   <si>
     <t>USID 1</t>
   </si>
@@ -2208,12 +2208,36 @@
   <si>
     <t>Results of Overlaps (based on just on main part or benefit)</t>
   </si>
+  <si>
+    <t>Overlaps</t>
+  </si>
+  <si>
+    <t>MP Correct Overlaps</t>
+  </si>
+  <si>
+    <t>MP Incorrect Overlaps</t>
+  </si>
+  <si>
+    <t>Benefit Correct Overlaps</t>
+  </si>
+  <si>
+    <t>Benefit Incorrect Overlaps</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Text / Annotations</t>
+  </si>
+  <si>
+    <t>Total Overlaps Main Part</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2234,6 +2258,13 @@
       <i/>
       <u/>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -2259,7 +2290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2293,9 +2324,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2304,6 +2332,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2639,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D32CB7-AB28-4E7E-801B-7875D2D0C9A5}">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2670,10 +2702,16 @@
     <col min="23" max="23" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.25" customWidth="1"/>
     <col min="25" max="25" width="17.1640625" customWidth="1"/>
-    <col min="33" max="33" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="29" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.25" customWidth="1"/>
+    <col min="33" max="33" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="42.75" customHeight="1">
+    <row r="1" spans="1:36" ht="42.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
@@ -2701,12 +2739,20 @@
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="11"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-    </row>
-    <row r="3" spans="1:35" ht="52.5">
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="5"/>
+    </row>
+    <row r="3" spans="1:36" ht="52.5">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2776,8 +2822,29 @@
       <c r="Y3" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" ht="28">
+      <c r="AB3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="29">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2860,8 +2927,31 @@
         <f>100-$X4</f>
         <v>65.714285714285722</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" ht="42">
+      <c r="AB4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC4">
+        <f>SUM($AD4:$AE4)</f>
+        <v>1456</v>
+      </c>
+      <c r="AD4">
+        <v>1436</v>
+      </c>
+      <c r="AE4">
+        <v>20</v>
+      </c>
+      <c r="AF4">
+        <f>SUM($AG4:$AH4)</f>
+        <v>51</v>
+      </c>
+      <c r="AG4">
+        <v>34</v>
+      </c>
+      <c r="AH4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="42">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -2945,7 +3035,7 @@
         <v>17.142857142857139</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="42">
+    <row r="6" spans="1:36" ht="42">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -2991,7 +3081,7 @@
         <v>6.9557750107342207</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="42">
+    <row r="7" spans="1:36" ht="42">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -3046,11 +3136,11 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="11"/>
-      <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-    </row>
-    <row r="8" spans="1:35" ht="28">
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:36" ht="28">
       <c r="A8" s="5" t="s">
         <v>142</v>
       </c>
@@ -3070,7 +3160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="52.5">
+    <row r="9" spans="1:36" ht="52.5">
       <c r="A9" s="5" t="s">
         <v>142</v>
       </c>
@@ -3123,7 +3213,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="28">
+    <row r="10" spans="1:36" ht="28">
       <c r="O10" s="3" t="s">
         <v>26</v>
       </c>
@@ -3165,7 +3255,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="42">
+    <row r="11" spans="1:36" ht="42">
       <c r="O11" s="5" t="s">
         <v>29</v>
       </c>
@@ -3213,10 +3303,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:U1"/>
-    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="O7:U7"/>
+    <mergeCell ref="AC1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3250,12 +3341,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3273,12 +3364,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -3299,10 +3390,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -3323,10 +3414,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -3344,10 +3435,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -3362,10 +3453,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -9183,12 +9274,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9206,12 +9297,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -9232,10 +9323,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -9256,10 +9347,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -9277,10 +9368,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -9295,10 +9386,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -15824,12 +15915,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15847,12 +15938,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -15873,10 +15964,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -15897,10 +15988,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -15918,10 +16009,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -15936,10 +16027,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -30199,12 +30290,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -30240,12 +30331,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="M3" t="s">
         <v>5</v>
       </c>
@@ -30264,10 +30355,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="M4" t="s">
         <v>4</v>
       </c>
@@ -30288,10 +30379,10 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="N5" t="s">
         <v>9</v>
       </c>
@@ -30309,10 +30400,10 @@
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -30327,10 +30418,10 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="4">
@@ -44035,12 +44126,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -44058,12 +44149,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -44084,10 +44175,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -44108,10 +44199,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -44129,10 +44220,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -44144,10 +44235,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -63068,12 +63159,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -63091,12 +63182,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -63117,10 +63208,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -63141,10 +63232,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -63162,10 +63253,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -63180,10 +63271,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">

--- a/results_gpt_approach/Redundancy_Analyse.xlsx
+++ b/results_gpt_approach/Redundancy_Analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\GraphAndLLMbasedRedundancyAnalysis\results_gpt_approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5699FFE-ACCB-42D2-A954-82228A153903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B913BA7E-5F69-46E6-B726-FE378355B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{79D69BF5-E829-4324-9BC3-87AC4BA8D8FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="2" xr2:uid="{79D69BF5-E829-4324-9BC3-87AC4BA8D8FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -2290,7 +2290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2321,6 +2321,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2332,10 +2335,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2673,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D32CB7-AB28-4E7E-801B-7875D2D0C9A5}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2712,44 +2711,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="42.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="11"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
       <c r="AI1" s="5"/>
     </row>
     <row r="3" spans="1:36" ht="52.5">
@@ -2927,7 +2923,7 @@
         <f>100-$X4</f>
         <v>65.714285714285722</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="12" t="s">
         <v>157</v>
       </c>
       <c r="AC4">
@@ -3126,15 +3122,15 @@
         <f>(100/$G$7)*$M$5</f>
         <v>33.471074380165291</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
       <c r="V7" s="11"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -3222,37 +3218,37 @@
       </c>
       <c r="Q10" s="3">
         <f>T10+W10</f>
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="R10" s="6">
         <f>(100/($C$8+$E$8+$C$9+$E$9))*$Q$10</f>
-        <v>79.902755267423018</v>
+        <v>81.199351701782817</v>
       </c>
       <c r="S10" s="6">
         <f>100-$R10</f>
-        <v>20.097244732576982</v>
+        <v>18.800648298217183</v>
       </c>
       <c r="T10" s="3">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="U10" s="3">
         <f>100/(SUM($C$8:$C$9))*$T$10</f>
-        <v>80.412371134020617</v>
+        <v>82.130584192439869</v>
       </c>
       <c r="V10" s="3">
         <f>100-$U10</f>
-        <v>19.587628865979383</v>
+        <v>17.869415807560131</v>
       </c>
       <c r="W10" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X10" s="3">
         <f>100/(SUM($E$8:$E$9))*$W$10</f>
-        <v>71.428571428571431</v>
+        <v>65.714285714285722</v>
       </c>
       <c r="Y10">
         <f>100-$X10</f>
-        <v>28.571428571428569</v>
+        <v>34.285714285714278</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="42">
@@ -3341,12 +3337,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3364,12 +3360,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -3390,10 +3386,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -3414,10 +3410,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -3435,10 +3431,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -3453,10 +3449,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -9274,12 +9270,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9297,12 +9293,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -9323,10 +9319,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -9347,10 +9343,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -9368,10 +9364,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -9386,10 +9382,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -15915,12 +15911,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15938,12 +15934,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -15964,10 +15960,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -15988,10 +15984,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -16009,10 +16005,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -16027,10 +16023,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -30290,12 +30286,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -30331,12 +30327,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="M3" t="s">
         <v>5</v>
       </c>
@@ -30355,10 +30351,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="M4" t="s">
         <v>4</v>
       </c>
@@ -30379,10 +30375,10 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
       <c r="N5" t="s">
         <v>9</v>
       </c>
@@ -30400,10 +30396,10 @@
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -30418,10 +30414,10 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="4">
@@ -44126,12 +44122,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -44149,12 +44145,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -44175,10 +44171,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -44199,10 +44195,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -44220,10 +44216,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -44235,10 +44231,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
@@ -63159,12 +63155,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -63182,12 +63178,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -63208,10 +63204,10 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="M3" t="s">
         <v>4</v>
       </c>
@@ -63232,10 +63228,10 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="N4" t="s">
         <v>9</v>
       </c>
@@ -63253,10 +63249,10 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4">
@@ -63271,10 +63267,10 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4">
